--- a/LabStarters/Lab08/Lab8Rubric-CIS195.xlsx
+++ b/LabStarters/Lab08/Lab8Rubric-CIS195.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CIS195-CourseMaterials/LabStarters/Lab08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB4691-980F-2941-AD35-56A4A7123A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9D9B77-4CB0-4A1E-B808-7F6A48051AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="20920" windowHeight="22120" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Student Scores" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Requirements:</t>
   </si>
@@ -43,18 +54,9 @@
     <t>Syntax and Style are correct</t>
   </si>
   <si>
-    <t>Part 2: Calendar for a month</t>
-  </si>
-  <si>
     <t>Lab 8, Multimedia</t>
   </si>
   <si>
-    <t>Part 1</t>
-  </si>
-  <si>
-    <t>Fall term, 2019, there was no part 2</t>
-  </si>
-  <si>
     <t>&lt;audio&gt; elemement</t>
   </si>
   <si>
@@ -65,9 +67,6 @@
   </si>
   <si>
     <t>The page conatins one each:</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
   </si>
 </sst>
 </file>
@@ -473,198 +472,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <f>SUM(B4:B8)</f>
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <f>SUM(C4:C8)</f>
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <f>SUM(E4:E8)</f>
         <v>50</v>
       </c>
-      <c r="F9" s="5">
-        <f>SUM(F4:F8)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <f>SUM(B13:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <f>SUM(C13:C15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5">
-        <f>SUM(B9,B16)</f>
-        <v>20</v>
-      </c>
-      <c r="C17" s="5">
-        <f>SUM(C9,C16)</f>
-        <v>20</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="28190" divId="Lab8Rubric-CIS195_28190" sourceType="range" sourceRef="A1:B9" destinationFile="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab08\Lab8Rubric-CIS195.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>
 
@@ -672,23 +597,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView zoomScale="156" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,14 +617,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -712,9 +633,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -723,9 +644,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -734,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -745,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -758,95 +679,95 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>

--- a/LabStarters/Lab08/Lab8Rubric-CIS195.xlsx
+++ b/LabStarters/Lab08/Lab8Rubric-CIS195.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9D9B77-4CB0-4A1E-B808-7F6A48051AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8922419-7798-41D6-BFE5-B6421096D504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="1392" yWindow="3000" windowWidth="15360" windowHeight="12336" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Requirements:</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>The page conatins one each:</t>
+  </si>
+  <si>
+    <t>Uploaded to citstudent</t>
   </si>
 </sst>
 </file>
@@ -142,19 +145,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -489,7 +488,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -508,7 +507,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -516,7 +515,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -524,71 +523,63 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
+      <c r="A8" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
-        <f>SUM(B4:B8)</f>
+      <c r="B10" s="4">
+        <f>SUM(B4:B9)</f>
         <v>50</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <webPublishItems count="1">
-    <webPublishItem id="28190" divId="Lab8Rubric-CIS195_28190" sourceType="range" sourceRef="A1:B9" destinationFile="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab08\Lab8Rubric-CIS195.htm"/>
+    <webPublishItem id="28190" divId="Lab8Rubric-CIS195_28190" sourceType="range" sourceRef="A1:B10" destinationFile="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab08\Lab8Rubric-CIS195.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -597,7 +588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -607,9 +600,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -623,7 +619,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -634,7 +630,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -645,19 +641,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
+      <c r="A7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -667,22 +663,28 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
-        <f>SUM(B3:B7)</f>
+      <c r="B9" s="4">
+        <f>SUM(B3:B8)</f>
         <v>50</v>
       </c>
-      <c r="C8" s="5">
-        <f>SUM(C3:C7)</f>
+      <c r="C9" s="4">
+        <f>SUM(C3:C8)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -692,85 +694,15 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LabStarters/Lab08/Lab8Rubric-CIS195.xlsx
+++ b/LabStarters/Lab08/Lab8Rubric-CIS195.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8922419-7798-41D6-BFE5-B6421096D504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9F6DD68-F895-43F5-9FB3-1A6E23400B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1392" yWindow="3000" windowWidth="15360" windowHeight="12336" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Requirements:</t>
   </si>
@@ -57,19 +57,25 @@
     <t>Lab 8, Multimedia</t>
   </si>
   <si>
-    <t>&lt;audio&gt; elemement</t>
-  </si>
-  <si>
     <t>&lt;object&gt; element</t>
   </si>
   <si>
     <t>&lt;iframe&gt; element</t>
   </si>
   <si>
-    <t>The page conatins one each:</t>
-  </si>
-  <si>
     <t>Uploaded to citstudent</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>The page contains one each:</t>
+  </si>
+  <si>
+    <t>&lt;audio&gt; element</t>
+  </si>
+  <si>
+    <t>No name in comment</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -503,12 +509,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -516,7 +522,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -524,7 +530,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -532,7 +538,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -599,10 +605,10 @@
     <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,14 +619,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -629,20 +635,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -651,18 +657,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -670,10 +679,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -683,13 +695,13 @@
       </c>
       <c r="C9" s="4">
         <f>SUM(C3:C8)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
